--- a/Improgress/SE-CP-Deliverables-of-EOMP3.xlsx
+++ b/Improgress/SE-CP-Deliverables-of-EOMP3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\VanLang\2018-2019\CP.HK1\EOMP3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA238A4-E228-4817-9E7B-E4E68401CCB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C59E8-D50B-4B34-BDF2-29CA41D25487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13365" activeTab="1" xr2:uid="{182E10B6-C822-41EC-9290-C9FF316C781D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{182E10B6-C822-41EC-9290-C9FF316C781D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="3" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>&lt;dd-Mmm-yyyy&gt;</t>
   </si>
@@ -247,45 +247,9 @@
     <t>Test Report</t>
   </si>
   <si>
-    <t>Software Architectural Driver</t>
-  </si>
-  <si>
-    <t>Software Architecture &amp; Design</t>
-  </si>
-  <si>
-    <t>Minutes of Meeting (MOMs)</t>
-  </si>
-  <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
     <t>STRUCTURE OF DELIVERABLES</t>
   </si>
   <si>
-    <t>All information relating to project planning, configuration management, risk &amp; issue management could find here.</t>
-  </si>
-  <si>
-    <t>Project Tracking</t>
-  </si>
-  <si>
-    <t>Containing information to support the project monitoring and control, including sprint review and sprint retrospective events.</t>
-  </si>
-  <si>
-    <t>Requirement Traceability Matrix</t>
-  </si>
-  <si>
-    <t>1. PROJECT DEVELOPMENT METHODOLOGY</t>
-  </si>
-  <si>
-    <t>2. PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>3. CONTEXT &amp; REQUIREMENT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>4. SOFTWARE ARCHITECTURE &amp; DESIGN</t>
-  </si>
-  <si>
     <t>5. QUALITY MANAGEMENT</t>
   </si>
   <si>
@@ -295,9 +259,6 @@
     <t>6. OTHERS</t>
   </si>
   <si>
-    <t>&lt;Filename&gt; (if any)</t>
-  </si>
-  <si>
     <t>Website url on server (if any). You can save it in a text file or put the url directly in column 'Description'.</t>
   </si>
   <si>
@@ -305,13 +266,292 @@
   </si>
   <si>
     <t>Structure: PracticeAreaPresentationAssessment</t>
+  </si>
+  <si>
+    <t>1.1. Project Management Plan and Process</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.1. Project Management Plan and Process</t>
+  </si>
+  <si>
+    <t>1.2. Requirement Plan and Process</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_Requirement Plan_Ver1.1, RE_RequirementProces_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.2. Requirement Plan and Process</t>
+  </si>
+  <si>
+    <t>1.3. Architecture Plan and Process</t>
+  </si>
+  <si>
+    <t>All information relating to: PM_ArchitecturePlan_Ver1.1, PM_ArchitectureProcess_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.3. Architecture Plan and Process</t>
+  </si>
+  <si>
+    <t>1. PROJECT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>1.4 Detail Design Plan and Process</t>
+  </si>
+  <si>
+    <t>1.5 Implementation Plan and Process</t>
+  </si>
+  <si>
+    <t>1.6 Test Plan and Process</t>
+  </si>
+  <si>
+    <t>1.7 Training Plan</t>
+  </si>
+  <si>
+    <t>All information relating to: PM_DetailDesign_Ver1.2</t>
+  </si>
+  <si>
+    <t>All information relating to: PM_ImplementPlan_Ver1.2, PM_ImplementProcess_Ver1.2</t>
+  </si>
+  <si>
+    <t>All information relating to: TE_TestingProcess_Ver1.1, TE_TestPlan_Ver1.1</t>
+  </si>
+  <si>
+    <t>All information relating to: PM_TrainingPlan_Ver1.1, PM_TrainingReport_Ver1.0, PM_TrainingSchedule_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.6 Test Plan and Process</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.7 Training Plan</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.5 Implementation Plan and Process</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\1. Planning and Process\1.4 Detail Design Plan and Process</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect</t>
+  </si>
+  <si>
+    <t>DE_GeneralDesign_Ver1.0</t>
+  </si>
+  <si>
+    <t>2. DETAIL DESIGN &amp; ARCHITECT</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control</t>
+  </si>
+  <si>
+    <t>3. MONITORING AND CONTROL</t>
+  </si>
+  <si>
+    <t>PM_GeneralSchedule_Ver1.0</t>
+  </si>
+  <si>
+    <t>4. REQUIREMENT</t>
+  </si>
+  <si>
+    <t>RE_ConOp_ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ConOp</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_ConOp_ver1.1</t>
+  </si>
+  <si>
+    <t>RE_ProductBacklog_Ver1.1</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_ProductBacklog_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All information relating to: DE_SequenceDiagram_M1_Ver1.0, DE_UseCaseDescription_M1_Ver1.0, DE_UseCaseDiagram_M1_Ver1.0, DE_SequenceDiagram_M2_Ver1.0, DE_UseCaseDescription_M2_Ver1.0, DE_UseCaseDiagram_M2_Ver1.0, DE_SequenceDiagram_M3_Ver1.0, DE_UseCaseDescription_M3_Ver1.0, DE_UseCaseDiagram_M3_Ver1.0, DE_BusinessRules_Ver1.0, DE_ClassDiagram_Ver1.0, DE_DatabaseAnalysisAndDesign_Ver1.0, DE_DataDictionary_Ver1.0, DE_FormEmail_Ver1.0, DE_IncrementalModel_Ver1.0, DE_MessageList_Ver1.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DE_ProcessDecision_Ver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, DE_ProjectDescription_Ver1.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DE_User&amp;InstallmentGuide_Ver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AR_ArchitectureDriversDocument_Ver1.1, AR_SoftwareArchitectureDocument_Ver1.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All information relating to:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PM_Module1_Ver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PM_RiskListM1_Ver1.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM_Module2_Ver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PM_RiskListM2_Ver1.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM_Module3_Ver1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PM_RiskListM3_Ver1.0, PM_Plan_Ver1.0, PM_ProblemProject_Ver1.0, PM_Progress_Ver1.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM_ProjectTimeline&amp;Milestones, PM_Question&amp;Answer_Ver1.0, PM_TeamMemberEvaluation_Ver1.0, PM-Lesson-Learned_Ver1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>RE_SRS_Ver1.1</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_SRS_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\SRS</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_UseCase_Ver1.1</t>
+  </si>
+  <si>
+    <t>RE_UseCase_Ver1.1</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\UCD</t>
+  </si>
+  <si>
+    <t>RE_TracebilityMetrix_Ver1.0</t>
+  </si>
+  <si>
+    <t>All information relating to: RE_TracebilityMetrix_Ver1.0</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\TracebilityMetrix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All information relating to: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM_TeamCharter_Ver1.1, PM_RiskManagementPlan_Ver1.1, PM_RiskList_Ver1.0, PM_QualityManagementPlan_Ver1.1, PM_ProjectPlan_Ver1.2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PM_Projectcharter_Ver1.3, PM_MeasurementPlan_Ver1.1, PM_DevelopmentProcess_Ver1.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM_ConfigurationManagementPlan_Ver1.2, PM_CommunicationPlan_Ver1.2, PM_ChangeManagementPlan_Ver1.0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +654,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -441,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -641,11 +887,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,9 +1000,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -762,6 +1042,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -777,15 +1066,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -872,7 +1158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1184,40 +1470,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1235,12 +1521,12 @@
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1293,10 +1579,10 @@
       <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1326,10 +1612,10 @@
       <c r="B22" s="16"/>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1350,30 +1636,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19497D1-BC04-455D-A788-D12346BEE9E3}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="60" style="21" customWidth="1"/>
-    <col min="3" max="3" width="7" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="24" customWidth="1"/>
     <col min="4" max="4" width="74.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1393,270 +1679,352 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>5</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
-        <v>6</v>
-      </c>
-      <c r="B13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="46"/>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="D14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="A17" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="171" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A21" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>1</v>
+      </c>
       <c r="B22" s="20" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>3</v>
+      </c>
       <c r="B24" s="20" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="D24" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>4</v>
+      </c>
       <c r="B25" s="20" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>5</v>
+      </c>
       <c r="B26" s="20" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -1664,10 +2032,10 @@
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -1675,84 +2043,128 @@
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A34:E34"/>
+  <mergeCells count="13">
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A5:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1764,7 +2176,7 @@
           <x14:formula1>
             <xm:f>Sheet4!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C8 C35:C37 C17:C19 C21:C22 C24:C28 C30:C33 C10:C15</xm:sqref>
+          <xm:sqref>C18 C39:C41 C20 C11:C16 C28:C32 C34:C37 C5 C22:C26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/SE-CP-Deliverables-of-EOMP3.xlsx
+++ b/Improgress/SE-CP-Deliverables-of-EOMP3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C59E8-D50B-4B34-BDF2-29CA41D25487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFF55B-3FA2-41F6-9E44-0100BAA9BF92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{182E10B6-C822-41EC-9290-C9FF316C781D}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>&lt;dd-Mmm-yyyy&gt;</t>
   </si>
@@ -199,24 +199,6 @@
     <t>Document Name</t>
   </si>
   <si>
-    <t>Lessons learned</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Installation Guide</t>
-  </si>
-  <si>
-    <t>User Guide</t>
-  </si>
-  <si>
-    <t>Source code</t>
-  </si>
-  <si>
-    <t>Product link</t>
-  </si>
-  <si>
     <t>SCRUM</t>
   </si>
   <si>
@@ -229,43 +211,10 @@
     <t>File</t>
   </si>
   <si>
-    <t>Zipped file</t>
-  </si>
-  <si>
-    <t>Test Plan</t>
-  </si>
-  <si>
-    <t>Functional Test Cases</t>
-  </si>
-  <si>
-    <t>Integration Test Cases</t>
-  </si>
-  <si>
-    <t>User Acceptance Test Cases</t>
-  </si>
-  <si>
-    <t>Test Report</t>
-  </si>
-  <si>
     <t>STRUCTURE OF DELIVERABLES</t>
   </si>
   <si>
-    <t>5. QUALITY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>6. IMPLEMENTATION &amp; DEPLOYMENT</t>
-  </si>
-  <si>
     <t>6. OTHERS</t>
-  </si>
-  <si>
-    <t>Website url on server (if any). You can save it in a text file or put the url directly in column 'Description'.</t>
-  </si>
-  <si>
-    <t>Template: SE-CP-Lesson-Learned</t>
-  </si>
-  <si>
-    <t>Structure: PracticeAreaPresentationAssessment</t>
   </si>
   <si>
     <t>1.1. Project Management Plan and Process</t>
@@ -545,6 +494,85 @@
       </rPr>
       <t>PM_ConfigurationManagementPlan_Ver1.2, PM_CommunicationPlan_Ver1.2, PM_ChangeManagementPlan_Ver1.0</t>
     </r>
+  </si>
+  <si>
+    <t>5. TEST</t>
+  </si>
+  <si>
+    <t>TE_DefectLog</t>
+  </si>
+  <si>
+    <t>TE_FunctionTest</t>
+  </si>
+  <si>
+    <t>TE_IntergrationTest</t>
+  </si>
+  <si>
+    <t>TE_TestReport</t>
+  </si>
+  <si>
+    <t>TE_UserAcceptanceTest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All information relating to: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TE_DefectLoModule1_ver1.9, TE_DefectLoModule2_ver1.9, TE_DefectLoModule3_ver1.3</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_DefectLog</t>
+  </si>
+  <si>
+    <t>All information relating to: TE_Testcase_Module1_ver1.4, TE_Testcase_Module2_ver1.4, TE_Testcase_Module3_ver1.3</t>
+  </si>
+  <si>
+    <t>All information relating to: TE_IntergrationTest_ver1.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All information relating to: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TE_TestReport_ver1.3</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_TestReport</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_IntergrationTest</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_FunctionTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All information relating to: TE_UserAcceptanceTestM1&amp;2_Ver1.0, TE_UserAcceptanceTestM3_Ver1.0 </t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_UserAcceptanceTest</t>
+  </si>
+  <si>
+    <t>3.1 Customer Meeting</t>
+  </si>
+  <si>
+    <t>All information relating to: Meeting_Customer_09-01-2019, Meeting_Customer_10-11-2019, Meeting_Customer_11-06-2020, Meeting_Customer_18-10-2019, Meeting_Customer_23-05-2020, Meeting_Customer_30-10-2019</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\Documents\Capstone-Project\Improgress\3. Report Meeting\3.1 Customer Meeting</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1095,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,7 +1529,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="38"/>
     </row>
@@ -1636,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19497D1-BC04-455D-A788-D12346BEE9E3}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1669,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>20</v>
@@ -1680,7 +1708,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -1692,16 +1720,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,16 +1772,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.25">
@@ -1761,16 +1789,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.25">
@@ -1778,16 +1806,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.25">
@@ -1795,16 +1823,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
@@ -1812,16 +1840,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
@@ -1829,21 +1857,21 @@
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -1855,21 +1883,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -1881,21 +1909,21 @@
         <v>1</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1906,259 +1934,222 @@
       <c r="A22" s="23">
         <v>1</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>74</v>
+      <c r="B22" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>77</v>
+      <c r="B23" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>82</v>
+      <c r="B24" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>86</v>
+      <c r="B25" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>87</v>
+        <v>26</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>5</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>88</v>
+      <c r="B26" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="20" t="s">
-        <v>34</v>
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>2</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>3</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="20" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>4</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>5</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20" t="s">
+    <row r="34" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="E5:E10"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="D5:D10"/>
@@ -2176,7 +2167,7 @@
           <x14:formula1>
             <xm:f>Sheet4!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C18 C39:C41 C20 C11:C16 C28:C32 C34:C37 C5 C22:C26</xm:sqref>
+          <xm:sqref>C18 C20 C11:C16 C22:C26 C5 C28:C32 C34:C35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2196,17 +2187,17 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
